--- a/Hoàng/SALE/MẪU BÁO GIÁ CHUẨN KSK 2025 - UPDATE.xlsx
+++ b/Hoàng/SALE/MẪU BÁO GIÁ CHUẨN KSK 2025 - UPDATE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA-TN\Hoàng\SALE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF30CE6-A393-42DC-92AC-3D8085C7FACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479C7F87-3855-4825-B7E5-EE1199BDAB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2388,26 +2388,8 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2420,6 +2402,24 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4989,7 +4989,7 @@
       <c r="A92" s="37">
         <v>57</v>
       </c>
-      <c r="B92" s="178"/>
+      <c r="B92" s="175"/>
       <c r="C92" s="35" t="s">
         <v>389</v>
       </c>
@@ -5171,7 +5171,7 @@
       <c r="A101" s="37">
         <v>65</v>
       </c>
-      <c r="B101" s="178"/>
+      <c r="B101" s="175"/>
       <c r="C101" s="35" t="s">
         <v>245</v>
       </c>
@@ -5190,7 +5190,7 @@
       <c r="A102" s="37">
         <v>66</v>
       </c>
-      <c r="B102" s="178"/>
+      <c r="B102" s="175"/>
       <c r="C102" s="35" t="s">
         <v>246</v>
       </c>
@@ -5209,7 +5209,7 @@
       <c r="A103" s="37">
         <v>67</v>
       </c>
-      <c r="B103" s="178"/>
+      <c r="B103" s="175"/>
       <c r="C103" s="35" t="s">
         <v>247</v>
       </c>
@@ -5228,7 +5228,7 @@
       <c r="A104" s="37">
         <v>68</v>
       </c>
-      <c r="B104" s="178"/>
+      <c r="B104" s="175"/>
       <c r="C104" s="35" t="s">
         <v>248</v>
       </c>
@@ -5247,7 +5247,7 @@
       <c r="A105" s="37">
         <v>69</v>
       </c>
-      <c r="B105" s="178"/>
+      <c r="B105" s="175"/>
       <c r="C105" s="35" t="s">
         <v>249</v>
       </c>
@@ -5266,7 +5266,7 @@
       <c r="A106" s="37">
         <v>70</v>
       </c>
-      <c r="B106" s="178"/>
+      <c r="B106" s="175"/>
       <c r="C106" s="35" t="s">
         <v>250</v>
       </c>
@@ -5285,7 +5285,7 @@
       <c r="A107" s="37">
         <v>71</v>
       </c>
-      <c r="B107" s="178"/>
+      <c r="B107" s="175"/>
       <c r="C107" s="35" t="s">
         <v>251</v>
       </c>
@@ -5304,7 +5304,7 @@
       <c r="A108" s="37">
         <v>72</v>
       </c>
-      <c r="B108" s="178"/>
+      <c r="B108" s="175"/>
       <c r="C108" s="35" t="s">
         <v>252</v>
       </c>
@@ -5323,7 +5323,7 @@
       <c r="A109" s="37">
         <v>73</v>
       </c>
-      <c r="B109" s="178"/>
+      <c r="B109" s="175"/>
       <c r="C109" s="35" t="s">
         <v>253</v>
       </c>
@@ -5342,7 +5342,7 @@
       <c r="A110" s="37">
         <v>74</v>
       </c>
-      <c r="B110" s="178"/>
+      <c r="B110" s="175"/>
       <c r="C110" s="35" t="s">
         <v>254</v>
       </c>
@@ -5361,7 +5361,7 @@
       <c r="A111" s="37">
         <v>75</v>
       </c>
-      <c r="B111" s="178"/>
+      <c r="B111" s="175"/>
       <c r="C111" s="35" t="s">
         <v>255</v>
       </c>
@@ -5380,7 +5380,7 @@
       <c r="A112" s="37">
         <v>76</v>
       </c>
-      <c r="B112" s="178"/>
+      <c r="B112" s="175"/>
       <c r="C112" s="35" t="s">
         <v>256</v>
       </c>
@@ -5473,12 +5473,12 @@
       <c r="H116" s="12"/>
     </row>
     <row r="117" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A117" s="182" t="s">
+      <c r="A117" s="176" t="s">
         <v>262</v>
       </c>
-      <c r="B117" s="182"/>
-      <c r="C117" s="182"/>
-      <c r="D117" s="182"/>
+      <c r="B117" s="176"/>
+      <c r="C117" s="176"/>
+      <c r="D117" s="176"/>
       <c r="E117" s="77"/>
       <c r="F117" s="77"/>
       <c r="G117" s="67"/>
@@ -5488,7 +5488,7 @@
       <c r="A118" s="37">
         <v>80</v>
       </c>
-      <c r="B118" s="183" t="s">
+      <c r="B118" s="177" t="s">
         <v>204</v>
       </c>
       <c r="C118" s="36" t="s">
@@ -5511,7 +5511,7 @@
       <c r="A119" s="37">
         <v>81</v>
       </c>
-      <c r="B119" s="184"/>
+      <c r="B119" s="178"/>
       <c r="C119" s="36" t="s">
         <v>34</v>
       </c>
@@ -5532,7 +5532,7 @@
       <c r="A120" s="37">
         <v>82</v>
       </c>
-      <c r="B120" s="184"/>
+      <c r="B120" s="178"/>
       <c r="C120" s="36" t="s">
         <v>325</v>
       </c>
@@ -5550,10 +5550,10 @@
       <c r="H120" s="12"/>
     </row>
     <row r="121" spans="1:8" ht="33" x14ac:dyDescent="0.35">
-      <c r="A121" s="175">
+      <c r="A121" s="180">
         <v>83</v>
       </c>
-      <c r="B121" s="184"/>
+      <c r="B121" s="178"/>
       <c r="C121" s="35" t="s">
         <v>408</v>
       </c>
@@ -5569,8 +5569,8 @@
       <c r="H121" s="12"/>
     </row>
     <row r="122" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A122" s="176"/>
-      <c r="B122" s="184"/>
+      <c r="A122" s="181"/>
+      <c r="B122" s="178"/>
       <c r="C122" s="35" t="s">
         <v>409</v>
       </c>
@@ -5586,8 +5586,8 @@
       <c r="H122" s="12"/>
     </row>
     <row r="123" spans="1:8" ht="33" x14ac:dyDescent="0.35">
-      <c r="A123" s="177"/>
-      <c r="B123" s="184"/>
+      <c r="A123" s="182"/>
+      <c r="B123" s="178"/>
       <c r="C123" s="35" t="s">
         <v>410</v>
       </c>
@@ -5606,7 +5606,7 @@
       <c r="A124" s="37">
         <v>84</v>
       </c>
-      <c r="B124" s="184"/>
+      <c r="B124" s="178"/>
       <c r="C124" s="36" t="s">
         <v>411</v>
       </c>
@@ -5627,7 +5627,7 @@
       <c r="A125" s="37">
         <v>85</v>
       </c>
-      <c r="B125" s="184"/>
+      <c r="B125" s="178"/>
       <c r="C125" s="36" t="s">
         <v>138</v>
       </c>
@@ -5648,7 +5648,7 @@
       <c r="A126" s="37">
         <v>86</v>
       </c>
-      <c r="B126" s="185"/>
+      <c r="B126" s="179"/>
       <c r="C126" s="36" t="s">
         <v>139</v>
       </c>
@@ -6571,12 +6571,12 @@
       <c r="H169" s="12"/>
     </row>
     <row r="170" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A170" s="182" t="s">
+      <c r="A170" s="176" t="s">
         <v>206</v>
       </c>
-      <c r="B170" s="182"/>
-      <c r="C170" s="182"/>
-      <c r="D170" s="182"/>
+      <c r="B170" s="176"/>
+      <c r="C170" s="176"/>
+      <c r="D170" s="176"/>
       <c r="E170" s="77"/>
       <c r="F170" s="77"/>
       <c r="G170" s="67"/>
@@ -6717,7 +6717,7 @@
         <f t="shared" si="3"/>
         <v>60000</v>
       </c>
-      <c r="G177" s="180" t="s">
+      <c r="G177" s="184" t="s">
         <v>384</v>
       </c>
     </row>
@@ -6739,15 +6739,15 @@
         <f t="shared" si="3"/>
         <v>73000</v>
       </c>
-      <c r="G178" s="181"/>
+      <c r="G178" s="185"/>
     </row>
     <row r="179" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A179" s="182" t="s">
+      <c r="A179" s="176" t="s">
         <v>168</v>
       </c>
-      <c r="B179" s="182"/>
-      <c r="C179" s="182"/>
-      <c r="D179" s="182"/>
+      <c r="B179" s="176"/>
+      <c r="C179" s="176"/>
+      <c r="D179" s="176"/>
       <c r="E179" s="77"/>
       <c r="F179" s="77"/>
       <c r="G179" s="67"/>
@@ -6926,12 +6926,12 @@
       <c r="H187" s="12"/>
     </row>
     <row r="188" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A188" s="182" t="s">
+      <c r="A188" s="176" t="s">
         <v>263</v>
       </c>
-      <c r="B188" s="182"/>
-      <c r="C188" s="182"/>
-      <c r="D188" s="182"/>
+      <c r="B188" s="176"/>
+      <c r="C188" s="176"/>
+      <c r="D188" s="176"/>
       <c r="E188" s="77"/>
       <c r="F188" s="77"/>
       <c r="G188" s="67"/>
@@ -6959,12 +6959,12 @@
       <c r="H189" s="12"/>
     </row>
     <row r="190" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A190" s="182" t="s">
+      <c r="A190" s="176" t="s">
         <v>233</v>
       </c>
-      <c r="B190" s="182"/>
-      <c r="C190" s="182"/>
-      <c r="D190" s="182"/>
+      <c r="B190" s="176"/>
+      <c r="C190" s="176"/>
+      <c r="D190" s="176"/>
       <c r="E190" s="77"/>
       <c r="F190" s="77"/>
       <c r="G190" s="67"/>
@@ -7541,12 +7541,12 @@
       <c r="G221" s="94"/>
     </row>
     <row r="222" spans="1:8" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A222" s="179" t="s">
+      <c r="A222" s="183" t="s">
         <v>27</v>
       </c>
-      <c r="B222" s="179"/>
-      <c r="C222" s="179"/>
-      <c r="D222" s="179"/>
+      <c r="B222" s="183"/>
+      <c r="C222" s="183"/>
+      <c r="D222" s="183"/>
       <c r="E222" s="26"/>
       <c r="F222" s="26"/>
       <c r="G222" s="95"/>
@@ -7674,6 +7674,60 @@
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="B223:G223"/>
+    <mergeCell ref="B224:G224"/>
+    <mergeCell ref="B225:G225"/>
+    <mergeCell ref="B226:G226"/>
+    <mergeCell ref="B227:G227"/>
+    <mergeCell ref="A222:D222"/>
+    <mergeCell ref="G177:G178"/>
+    <mergeCell ref="A179:D179"/>
+    <mergeCell ref="G180:G182"/>
+    <mergeCell ref="A188:D188"/>
+    <mergeCell ref="A190:D190"/>
+    <mergeCell ref="A201:D201"/>
+    <mergeCell ref="A207:D207"/>
+    <mergeCell ref="A211:D211"/>
+    <mergeCell ref="E212:E215"/>
+    <mergeCell ref="F212:F215"/>
+    <mergeCell ref="A216:D216"/>
+    <mergeCell ref="A176:D176"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B100:B113"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="B118:B126"/>
+    <mergeCell ref="A121:A123"/>
+    <mergeCell ref="B127:B132"/>
+    <mergeCell ref="B133:B139"/>
+    <mergeCell ref="B140:B169"/>
+    <mergeCell ref="A170:D170"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="B60:B72"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="B81:B88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="G73:G75"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="G40:G44"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="G46:G48"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="D1:G5"/>
     <mergeCell ref="A7:G7"/>
@@ -7690,60 +7744,6 @@
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="G24:G25"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="G40:G44"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="G46:G48"/>
-    <mergeCell ref="G73:G75"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="B60:B72"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="B81:B88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A176:D176"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="B100:B113"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="B118:B126"/>
-    <mergeCell ref="A121:A123"/>
-    <mergeCell ref="B127:B132"/>
-    <mergeCell ref="B133:B139"/>
-    <mergeCell ref="B140:B169"/>
-    <mergeCell ref="A170:D170"/>
-    <mergeCell ref="B174:B175"/>
-    <mergeCell ref="A222:D222"/>
-    <mergeCell ref="G177:G178"/>
-    <mergeCell ref="A179:D179"/>
-    <mergeCell ref="G180:G182"/>
-    <mergeCell ref="A188:D188"/>
-    <mergeCell ref="A190:D190"/>
-    <mergeCell ref="A201:D201"/>
-    <mergeCell ref="A207:D207"/>
-    <mergeCell ref="A211:D211"/>
-    <mergeCell ref="E212:E215"/>
-    <mergeCell ref="F212:F215"/>
-    <mergeCell ref="A216:D216"/>
-    <mergeCell ref="B223:G223"/>
-    <mergeCell ref="B224:G224"/>
-    <mergeCell ref="B225:G225"/>
-    <mergeCell ref="B226:G226"/>
-    <mergeCell ref="B227:G227"/>
   </mergeCells>
   <pageMargins left="0.35433070866141736" right="0.15748031496062992" top="0.23622047244094491" bottom="0.19685039370078741" header="0.15748031496062992" footer="0.15748031496062992"/>
   <pageSetup paperSize="9" scale="53" orientation="portrait" r:id="rId1"/>
@@ -9559,7 +9559,7 @@
       <c r="A92" s="37">
         <v>57</v>
       </c>
-      <c r="B92" s="178"/>
+      <c r="B92" s="175"/>
       <c r="C92" s="35" t="s">
         <v>389</v>
       </c>
@@ -9741,7 +9741,7 @@
       <c r="A101" s="37">
         <v>65</v>
       </c>
-      <c r="B101" s="178"/>
+      <c r="B101" s="175"/>
       <c r="C101" s="35" t="s">
         <v>245</v>
       </c>
@@ -9760,7 +9760,7 @@
       <c r="A102" s="37">
         <v>66</v>
       </c>
-      <c r="B102" s="178"/>
+      <c r="B102" s="175"/>
       <c r="C102" s="35" t="s">
         <v>246</v>
       </c>
@@ -9779,7 +9779,7 @@
       <c r="A103" s="37">
         <v>67</v>
       </c>
-      <c r="B103" s="178"/>
+      <c r="B103" s="175"/>
       <c r="C103" s="35" t="s">
         <v>247</v>
       </c>
@@ -9798,7 +9798,7 @@
       <c r="A104" s="37">
         <v>68</v>
       </c>
-      <c r="B104" s="178"/>
+      <c r="B104" s="175"/>
       <c r="C104" s="35" t="s">
         <v>248</v>
       </c>
@@ -9817,7 +9817,7 @@
       <c r="A105" s="37">
         <v>69</v>
       </c>
-      <c r="B105" s="178"/>
+      <c r="B105" s="175"/>
       <c r="C105" s="35" t="s">
         <v>249</v>
       </c>
@@ -9836,7 +9836,7 @@
       <c r="A106" s="37">
         <v>70</v>
       </c>
-      <c r="B106" s="178"/>
+      <c r="B106" s="175"/>
       <c r="C106" s="35" t="s">
         <v>250</v>
       </c>
@@ -9855,7 +9855,7 @@
       <c r="A107" s="37">
         <v>71</v>
       </c>
-      <c r="B107" s="178"/>
+      <c r="B107" s="175"/>
       <c r="C107" s="35" t="s">
         <v>251</v>
       </c>
@@ -9874,7 +9874,7 @@
       <c r="A108" s="37">
         <v>72</v>
       </c>
-      <c r="B108" s="178"/>
+      <c r="B108" s="175"/>
       <c r="C108" s="35" t="s">
         <v>252</v>
       </c>
@@ -9893,7 +9893,7 @@
       <c r="A109" s="37">
         <v>73</v>
       </c>
-      <c r="B109" s="178"/>
+      <c r="B109" s="175"/>
       <c r="C109" s="35" t="s">
         <v>253</v>
       </c>
@@ -9912,7 +9912,7 @@
       <c r="A110" s="37">
         <v>74</v>
       </c>
-      <c r="B110" s="178"/>
+      <c r="B110" s="175"/>
       <c r="C110" s="35" t="s">
         <v>254</v>
       </c>
@@ -9931,7 +9931,7 @@
       <c r="A111" s="37">
         <v>75</v>
       </c>
-      <c r="B111" s="178"/>
+      <c r="B111" s="175"/>
       <c r="C111" s="35" t="s">
         <v>255</v>
       </c>
@@ -9950,7 +9950,7 @@
       <c r="A112" s="37">
         <v>76</v>
       </c>
-      <c r="B112" s="178"/>
+      <c r="B112" s="175"/>
       <c r="C112" s="35" t="s">
         <v>256</v>
       </c>
@@ -10043,12 +10043,12 @@
       <c r="H116" s="12"/>
     </row>
     <row r="117" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A117" s="182" t="s">
+      <c r="A117" s="176" t="s">
         <v>262</v>
       </c>
-      <c r="B117" s="182"/>
-      <c r="C117" s="182"/>
-      <c r="D117" s="182"/>
+      <c r="B117" s="176"/>
+      <c r="C117" s="176"/>
+      <c r="D117" s="176"/>
       <c r="E117" s="77"/>
       <c r="F117" s="77"/>
       <c r="G117" s="67"/>
@@ -10058,7 +10058,7 @@
       <c r="A118" s="37">
         <v>80</v>
       </c>
-      <c r="B118" s="183" t="s">
+      <c r="B118" s="177" t="s">
         <v>204</v>
       </c>
       <c r="C118" s="36" t="s">
@@ -10081,7 +10081,7 @@
       <c r="A119" s="37">
         <v>81</v>
       </c>
-      <c r="B119" s="184"/>
+      <c r="B119" s="178"/>
       <c r="C119" s="36" t="s">
         <v>34</v>
       </c>
@@ -10102,7 +10102,7 @@
       <c r="A120" s="37">
         <v>82</v>
       </c>
-      <c r="B120" s="184"/>
+      <c r="B120" s="178"/>
       <c r="C120" s="36" t="s">
         <v>325</v>
       </c>
@@ -10120,10 +10120,10 @@
       <c r="H120" s="12"/>
     </row>
     <row r="121" spans="1:8" ht="33" x14ac:dyDescent="0.35">
-      <c r="A121" s="175">
+      <c r="A121" s="180">
         <v>83</v>
       </c>
-      <c r="B121" s="184"/>
+      <c r="B121" s="178"/>
       <c r="C121" s="35" t="s">
         <v>408</v>
       </c>
@@ -10139,8 +10139,8 @@
       <c r="H121" s="12"/>
     </row>
     <row r="122" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A122" s="176"/>
-      <c r="B122" s="184"/>
+      <c r="A122" s="181"/>
+      <c r="B122" s="178"/>
       <c r="C122" s="35" t="s">
         <v>409</v>
       </c>
@@ -10156,8 +10156,8 @@
       <c r="H122" s="12"/>
     </row>
     <row r="123" spans="1:8" ht="33" x14ac:dyDescent="0.35">
-      <c r="A123" s="177"/>
-      <c r="B123" s="184"/>
+      <c r="A123" s="182"/>
+      <c r="B123" s="178"/>
       <c r="C123" s="35" t="s">
         <v>410</v>
       </c>
@@ -10176,7 +10176,7 @@
       <c r="A124" s="37">
         <v>84</v>
       </c>
-      <c r="B124" s="184"/>
+      <c r="B124" s="178"/>
       <c r="C124" s="36" t="s">
         <v>411</v>
       </c>
@@ -10197,7 +10197,7 @@
       <c r="A125" s="37">
         <v>85</v>
       </c>
-      <c r="B125" s="184"/>
+      <c r="B125" s="178"/>
       <c r="C125" s="36" t="s">
         <v>138</v>
       </c>
@@ -10218,7 +10218,7 @@
       <c r="A126" s="37">
         <v>86</v>
       </c>
-      <c r="B126" s="185"/>
+      <c r="B126" s="179"/>
       <c r="C126" s="36" t="s">
         <v>139</v>
       </c>
@@ -11141,12 +11141,12 @@
       <c r="H169" s="12"/>
     </row>
     <row r="170" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A170" s="182" t="s">
+      <c r="A170" s="176" t="s">
         <v>206</v>
       </c>
-      <c r="B170" s="182"/>
-      <c r="C170" s="182"/>
-      <c r="D170" s="182"/>
+      <c r="B170" s="176"/>
+      <c r="C170" s="176"/>
+      <c r="D170" s="176"/>
       <c r="E170" s="77"/>
       <c r="F170" s="77"/>
       <c r="G170" s="67"/>
@@ -11287,7 +11287,7 @@
         <f t="shared" si="3"/>
         <v>64000</v>
       </c>
-      <c r="G177" s="180" t="s">
+      <c r="G177" s="184" t="s">
         <v>384</v>
       </c>
     </row>
@@ -11309,15 +11309,15 @@
         <f t="shared" si="3"/>
         <v>77000</v>
       </c>
-      <c r="G178" s="181"/>
+      <c r="G178" s="185"/>
     </row>
     <row r="179" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A179" s="182" t="s">
+      <c r="A179" s="176" t="s">
         <v>168</v>
       </c>
-      <c r="B179" s="182"/>
-      <c r="C179" s="182"/>
-      <c r="D179" s="182"/>
+      <c r="B179" s="176"/>
+      <c r="C179" s="176"/>
+      <c r="D179" s="176"/>
       <c r="E179" s="77"/>
       <c r="F179" s="77"/>
       <c r="G179" s="67"/>
@@ -11496,12 +11496,12 @@
       <c r="H187" s="12"/>
     </row>
     <row r="188" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A188" s="182" t="s">
+      <c r="A188" s="176" t="s">
         <v>263</v>
       </c>
-      <c r="B188" s="182"/>
-      <c r="C188" s="182"/>
-      <c r="D188" s="182"/>
+      <c r="B188" s="176"/>
+      <c r="C188" s="176"/>
+      <c r="D188" s="176"/>
       <c r="E188" s="77"/>
       <c r="F188" s="77"/>
       <c r="G188" s="67"/>
@@ -11529,12 +11529,12 @@
       <c r="H189" s="12"/>
     </row>
     <row r="190" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A190" s="182" t="s">
+      <c r="A190" s="176" t="s">
         <v>233</v>
       </c>
-      <c r="B190" s="182"/>
-      <c r="C190" s="182"/>
-      <c r="D190" s="182"/>
+      <c r="B190" s="176"/>
+      <c r="C190" s="176"/>
+      <c r="D190" s="176"/>
       <c r="E190" s="77"/>
       <c r="F190" s="77"/>
       <c r="G190" s="67"/>
@@ -12111,12 +12111,12 @@
       <c r="G221" s="94"/>
     </row>
     <row r="222" spans="1:8" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A222" s="179" t="s">
+      <c r="A222" s="183" t="s">
         <v>27</v>
       </c>
-      <c r="B222" s="179"/>
-      <c r="C222" s="179"/>
-      <c r="D222" s="179"/>
+      <c r="B222" s="183"/>
+      <c r="C222" s="183"/>
+      <c r="D222" s="183"/>
       <c r="E222" s="26"/>
       <c r="F222" s="26"/>
       <c r="G222" s="95"/>
@@ -12244,6 +12244,60 @@
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="B223:G223"/>
+    <mergeCell ref="B224:G224"/>
+    <mergeCell ref="B225:G225"/>
+    <mergeCell ref="B226:G226"/>
+    <mergeCell ref="B227:G227"/>
+    <mergeCell ref="A222:D222"/>
+    <mergeCell ref="G177:G178"/>
+    <mergeCell ref="A179:D179"/>
+    <mergeCell ref="G180:G182"/>
+    <mergeCell ref="A188:D188"/>
+    <mergeCell ref="A190:D190"/>
+    <mergeCell ref="A201:D201"/>
+    <mergeCell ref="A207:D207"/>
+    <mergeCell ref="A211:D211"/>
+    <mergeCell ref="E212:E215"/>
+    <mergeCell ref="F212:F215"/>
+    <mergeCell ref="A216:D216"/>
+    <mergeCell ref="A176:D176"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B100:B113"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="B118:B126"/>
+    <mergeCell ref="A121:A123"/>
+    <mergeCell ref="B127:B132"/>
+    <mergeCell ref="B133:B139"/>
+    <mergeCell ref="B140:B169"/>
+    <mergeCell ref="A170:D170"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="B60:B72"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="B81:B88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="G73:G75"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="G40:G44"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="G46:G48"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="D1:G5"/>
     <mergeCell ref="A7:G7"/>
@@ -12260,60 +12314,6 @@
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="G24:G25"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="G40:G44"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="G46:G48"/>
-    <mergeCell ref="G73:G75"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="B60:B72"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="B81:B88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A176:D176"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="B100:B113"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="B118:B126"/>
-    <mergeCell ref="A121:A123"/>
-    <mergeCell ref="B127:B132"/>
-    <mergeCell ref="B133:B139"/>
-    <mergeCell ref="B140:B169"/>
-    <mergeCell ref="A170:D170"/>
-    <mergeCell ref="B174:B175"/>
-    <mergeCell ref="A222:D222"/>
-    <mergeCell ref="G177:G178"/>
-    <mergeCell ref="A179:D179"/>
-    <mergeCell ref="G180:G182"/>
-    <mergeCell ref="A188:D188"/>
-    <mergeCell ref="A190:D190"/>
-    <mergeCell ref="A201:D201"/>
-    <mergeCell ref="A207:D207"/>
-    <mergeCell ref="A211:D211"/>
-    <mergeCell ref="E212:E215"/>
-    <mergeCell ref="F212:F215"/>
-    <mergeCell ref="A216:D216"/>
-    <mergeCell ref="B223:G223"/>
-    <mergeCell ref="B224:G224"/>
-    <mergeCell ref="B225:G225"/>
-    <mergeCell ref="B226:G226"/>
-    <mergeCell ref="B227:G227"/>
   </mergeCells>
   <pageMargins left="0.35433070866141736" right="0.15748031496062992" top="0.23622047244094491" bottom="0.19685039370078741" header="0.15748031496062992" footer="0.15748031496062992"/>
   <pageSetup paperSize="9" scale="47" orientation="portrait" r:id="rId1"/>
@@ -14126,7 +14126,7 @@
       <c r="A92" s="37">
         <v>57</v>
       </c>
-      <c r="B92" s="178"/>
+      <c r="B92" s="175"/>
       <c r="C92" s="35" t="s">
         <v>389</v>
       </c>
@@ -14308,7 +14308,7 @@
       <c r="A101" s="37">
         <v>65</v>
       </c>
-      <c r="B101" s="178"/>
+      <c r="B101" s="175"/>
       <c r="C101" s="35" t="s">
         <v>245</v>
       </c>
@@ -14327,7 +14327,7 @@
       <c r="A102" s="37">
         <v>66</v>
       </c>
-      <c r="B102" s="178"/>
+      <c r="B102" s="175"/>
       <c r="C102" s="35" t="s">
         <v>246</v>
       </c>
@@ -14346,7 +14346,7 @@
       <c r="A103" s="37">
         <v>67</v>
       </c>
-      <c r="B103" s="178"/>
+      <c r="B103" s="175"/>
       <c r="C103" s="35" t="s">
         <v>247</v>
       </c>
@@ -14365,7 +14365,7 @@
       <c r="A104" s="37">
         <v>68</v>
       </c>
-      <c r="B104" s="178"/>
+      <c r="B104" s="175"/>
       <c r="C104" s="35" t="s">
         <v>248</v>
       </c>
@@ -14384,7 +14384,7 @@
       <c r="A105" s="37">
         <v>69</v>
       </c>
-      <c r="B105" s="178"/>
+      <c r="B105" s="175"/>
       <c r="C105" s="35" t="s">
         <v>249</v>
       </c>
@@ -14403,7 +14403,7 @@
       <c r="A106" s="37">
         <v>70</v>
       </c>
-      <c r="B106" s="178"/>
+      <c r="B106" s="175"/>
       <c r="C106" s="35" t="s">
         <v>250</v>
       </c>
@@ -14422,7 +14422,7 @@
       <c r="A107" s="37">
         <v>71</v>
       </c>
-      <c r="B107" s="178"/>
+      <c r="B107" s="175"/>
       <c r="C107" s="35" t="s">
         <v>251</v>
       </c>
@@ -14441,7 +14441,7 @@
       <c r="A108" s="37">
         <v>72</v>
       </c>
-      <c r="B108" s="178"/>
+      <c r="B108" s="175"/>
       <c r="C108" s="35" t="s">
         <v>252</v>
       </c>
@@ -14460,7 +14460,7 @@
       <c r="A109" s="37">
         <v>73</v>
       </c>
-      <c r="B109" s="178"/>
+      <c r="B109" s="175"/>
       <c r="C109" s="35" t="s">
         <v>253</v>
       </c>
@@ -14479,7 +14479,7 @@
       <c r="A110" s="37">
         <v>74</v>
       </c>
-      <c r="B110" s="178"/>
+      <c r="B110" s="175"/>
       <c r="C110" s="35" t="s">
         <v>254</v>
       </c>
@@ -14498,7 +14498,7 @@
       <c r="A111" s="37">
         <v>75</v>
       </c>
-      <c r="B111" s="178"/>
+      <c r="B111" s="175"/>
       <c r="C111" s="35" t="s">
         <v>255</v>
       </c>
@@ -14517,7 +14517,7 @@
       <c r="A112" s="37">
         <v>76</v>
       </c>
-      <c r="B112" s="178"/>
+      <c r="B112" s="175"/>
       <c r="C112" s="35" t="s">
         <v>256</v>
       </c>
@@ -14610,12 +14610,12 @@
       <c r="H116" s="12"/>
     </row>
     <row r="117" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A117" s="182" t="s">
+      <c r="A117" s="176" t="s">
         <v>262</v>
       </c>
-      <c r="B117" s="182"/>
-      <c r="C117" s="182"/>
-      <c r="D117" s="182"/>
+      <c r="B117" s="176"/>
+      <c r="C117" s="176"/>
+      <c r="D117" s="176"/>
       <c r="E117" s="77"/>
       <c r="F117" s="77"/>
       <c r="G117" s="67"/>
@@ -14625,7 +14625,7 @@
       <c r="A118" s="37">
         <v>80</v>
       </c>
-      <c r="B118" s="183" t="s">
+      <c r="B118" s="177" t="s">
         <v>204</v>
       </c>
       <c r="C118" s="36" t="s">
@@ -14648,7 +14648,7 @@
       <c r="A119" s="37">
         <v>81</v>
       </c>
-      <c r="B119" s="184"/>
+      <c r="B119" s="178"/>
       <c r="C119" s="36" t="s">
         <v>34</v>
       </c>
@@ -14669,7 +14669,7 @@
       <c r="A120" s="37">
         <v>82</v>
       </c>
-      <c r="B120" s="184"/>
+      <c r="B120" s="178"/>
       <c r="C120" s="36" t="s">
         <v>325</v>
       </c>
@@ -14687,10 +14687,10 @@
       <c r="H120" s="12"/>
     </row>
     <row r="121" spans="1:8" ht="33" x14ac:dyDescent="0.35">
-      <c r="A121" s="175">
+      <c r="A121" s="180">
         <v>83</v>
       </c>
-      <c r="B121" s="184"/>
+      <c r="B121" s="178"/>
       <c r="C121" s="35" t="s">
         <v>408</v>
       </c>
@@ -14706,8 +14706,8 @@
       <c r="H121" s="12"/>
     </row>
     <row r="122" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A122" s="176"/>
-      <c r="B122" s="184"/>
+      <c r="A122" s="181"/>
+      <c r="B122" s="178"/>
       <c r="C122" s="35" t="s">
         <v>409</v>
       </c>
@@ -14723,8 +14723,8 @@
       <c r="H122" s="12"/>
     </row>
     <row r="123" spans="1:8" ht="33" x14ac:dyDescent="0.35">
-      <c r="A123" s="177"/>
-      <c r="B123" s="184"/>
+      <c r="A123" s="182"/>
+      <c r="B123" s="178"/>
       <c r="C123" s="35" t="s">
         <v>410</v>
       </c>
@@ -14743,7 +14743,7 @@
       <c r="A124" s="37">
         <v>84</v>
       </c>
-      <c r="B124" s="184"/>
+      <c r="B124" s="178"/>
       <c r="C124" s="36" t="s">
         <v>411</v>
       </c>
@@ -14764,7 +14764,7 @@
       <c r="A125" s="37">
         <v>85</v>
       </c>
-      <c r="B125" s="184"/>
+      <c r="B125" s="178"/>
       <c r="C125" s="36" t="s">
         <v>138</v>
       </c>
@@ -14785,7 +14785,7 @@
       <c r="A126" s="37">
         <v>86</v>
       </c>
-      <c r="B126" s="185"/>
+      <c r="B126" s="179"/>
       <c r="C126" s="36" t="s">
         <v>139</v>
       </c>
@@ -15708,12 +15708,12 @@
       <c r="H169" s="12"/>
     </row>
     <row r="170" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A170" s="182" t="s">
+      <c r="A170" s="176" t="s">
         <v>206</v>
       </c>
-      <c r="B170" s="182"/>
-      <c r="C170" s="182"/>
-      <c r="D170" s="182"/>
+      <c r="B170" s="176"/>
+      <c r="C170" s="176"/>
+      <c r="D170" s="176"/>
       <c r="E170" s="77"/>
       <c r="F170" s="77"/>
       <c r="G170" s="67"/>
@@ -15854,7 +15854,7 @@
         <f t="shared" si="4"/>
         <v>66000</v>
       </c>
-      <c r="G177" s="180" t="s">
+      <c r="G177" s="184" t="s">
         <v>384</v>
       </c>
     </row>
@@ -15876,15 +15876,15 @@
         <f t="shared" si="4"/>
         <v>80000</v>
       </c>
-      <c r="G178" s="181"/>
+      <c r="G178" s="185"/>
     </row>
     <row r="179" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A179" s="182" t="s">
+      <c r="A179" s="176" t="s">
         <v>168</v>
       </c>
-      <c r="B179" s="182"/>
-      <c r="C179" s="182"/>
-      <c r="D179" s="182"/>
+      <c r="B179" s="176"/>
+      <c r="C179" s="176"/>
+      <c r="D179" s="176"/>
       <c r="E179" s="77"/>
       <c r="F179" s="77"/>
       <c r="G179" s="67"/>
@@ -16063,12 +16063,12 @@
       <c r="H187" s="12"/>
     </row>
     <row r="188" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A188" s="182" t="s">
+      <c r="A188" s="176" t="s">
         <v>263</v>
       </c>
-      <c r="B188" s="182"/>
-      <c r="C188" s="182"/>
-      <c r="D188" s="182"/>
+      <c r="B188" s="176"/>
+      <c r="C188" s="176"/>
+      <c r="D188" s="176"/>
       <c r="E188" s="77"/>
       <c r="F188" s="77"/>
       <c r="G188" s="67"/>
@@ -16096,12 +16096,12 @@
       <c r="H189" s="12"/>
     </row>
     <row r="190" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A190" s="182" t="s">
+      <c r="A190" s="176" t="s">
         <v>233</v>
       </c>
-      <c r="B190" s="182"/>
-      <c r="C190" s="182"/>
-      <c r="D190" s="182"/>
+      <c r="B190" s="176"/>
+      <c r="C190" s="176"/>
+      <c r="D190" s="176"/>
       <c r="E190" s="77"/>
       <c r="F190" s="77"/>
       <c r="G190" s="67"/>
@@ -16678,12 +16678,12 @@
       <c r="G221" s="94"/>
     </row>
     <row r="222" spans="1:8" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A222" s="179" t="s">
+      <c r="A222" s="183" t="s">
         <v>27</v>
       </c>
-      <c r="B222" s="179"/>
-      <c r="C222" s="179"/>
-      <c r="D222" s="179"/>
+      <c r="B222" s="183"/>
+      <c r="C222" s="183"/>
+      <c r="D222" s="183"/>
       <c r="E222" s="26"/>
       <c r="F222" s="26"/>
       <c r="G222" s="95"/>
@@ -16811,6 +16811,60 @@
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="B223:G223"/>
+    <mergeCell ref="B224:G224"/>
+    <mergeCell ref="B225:G225"/>
+    <mergeCell ref="B226:G226"/>
+    <mergeCell ref="B227:G227"/>
+    <mergeCell ref="A222:D222"/>
+    <mergeCell ref="G177:G178"/>
+    <mergeCell ref="A179:D179"/>
+    <mergeCell ref="G180:G182"/>
+    <mergeCell ref="A188:D188"/>
+    <mergeCell ref="A190:D190"/>
+    <mergeCell ref="A201:D201"/>
+    <mergeCell ref="A207:D207"/>
+    <mergeCell ref="A211:D211"/>
+    <mergeCell ref="E212:E215"/>
+    <mergeCell ref="F212:F215"/>
+    <mergeCell ref="A216:D216"/>
+    <mergeCell ref="A176:D176"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B100:B113"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="B118:B126"/>
+    <mergeCell ref="A121:A123"/>
+    <mergeCell ref="B127:B132"/>
+    <mergeCell ref="B133:B139"/>
+    <mergeCell ref="B140:B169"/>
+    <mergeCell ref="A170:D170"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="B60:B72"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="B81:B88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="G73:G75"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="G40:G44"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="G46:G48"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="D1:G5"/>
     <mergeCell ref="A7:G7"/>
@@ -16827,60 +16881,6 @@
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="G24:G25"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="G40:G44"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="G46:G48"/>
-    <mergeCell ref="G73:G75"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="B60:B72"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="B81:B88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A176:D176"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="B100:B113"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="B118:B126"/>
-    <mergeCell ref="A121:A123"/>
-    <mergeCell ref="B127:B132"/>
-    <mergeCell ref="B133:B139"/>
-    <mergeCell ref="B140:B169"/>
-    <mergeCell ref="A170:D170"/>
-    <mergeCell ref="B174:B175"/>
-    <mergeCell ref="A222:D222"/>
-    <mergeCell ref="G177:G178"/>
-    <mergeCell ref="A179:D179"/>
-    <mergeCell ref="G180:G182"/>
-    <mergeCell ref="A188:D188"/>
-    <mergeCell ref="A190:D190"/>
-    <mergeCell ref="A201:D201"/>
-    <mergeCell ref="A207:D207"/>
-    <mergeCell ref="A211:D211"/>
-    <mergeCell ref="E212:E215"/>
-    <mergeCell ref="F212:F215"/>
-    <mergeCell ref="A216:D216"/>
-    <mergeCell ref="B223:G223"/>
-    <mergeCell ref="B224:G224"/>
-    <mergeCell ref="B225:G225"/>
-    <mergeCell ref="B226:G226"/>
-    <mergeCell ref="B227:G227"/>
   </mergeCells>
   <pageMargins left="0.35433070866141736" right="0.15748031496062992" top="0.23622047244094491" bottom="0.19685039370078741" header="0.15748031496062992" footer="0.15748031496062992"/>
   <pageSetup paperSize="9" scale="53" orientation="portrait" r:id="rId1"/>
@@ -18696,7 +18696,7 @@
       <c r="A92" s="37">
         <v>57</v>
       </c>
-      <c r="B92" s="178"/>
+      <c r="B92" s="175"/>
       <c r="C92" s="35" t="s">
         <v>389</v>
       </c>
@@ -18878,7 +18878,7 @@
       <c r="A101" s="37">
         <v>65</v>
       </c>
-      <c r="B101" s="178"/>
+      <c r="B101" s="175"/>
       <c r="C101" s="35" t="s">
         <v>245</v>
       </c>
@@ -18897,7 +18897,7 @@
       <c r="A102" s="37">
         <v>66</v>
       </c>
-      <c r="B102" s="178"/>
+      <c r="B102" s="175"/>
       <c r="C102" s="35" t="s">
         <v>246</v>
       </c>
@@ -18916,7 +18916,7 @@
       <c r="A103" s="37">
         <v>67</v>
       </c>
-      <c r="B103" s="178"/>
+      <c r="B103" s="175"/>
       <c r="C103" s="35" t="s">
         <v>247</v>
       </c>
@@ -18935,7 +18935,7 @@
       <c r="A104" s="37">
         <v>68</v>
       </c>
-      <c r="B104" s="178"/>
+      <c r="B104" s="175"/>
       <c r="C104" s="35" t="s">
         <v>248</v>
       </c>
@@ -18954,7 +18954,7 @@
       <c r="A105" s="37">
         <v>69</v>
       </c>
-      <c r="B105" s="178"/>
+      <c r="B105" s="175"/>
       <c r="C105" s="35" t="s">
         <v>249</v>
       </c>
@@ -18973,7 +18973,7 @@
       <c r="A106" s="37">
         <v>70</v>
       </c>
-      <c r="B106" s="178"/>
+      <c r="B106" s="175"/>
       <c r="C106" s="35" t="s">
         <v>250</v>
       </c>
@@ -18992,7 +18992,7 @@
       <c r="A107" s="37">
         <v>71</v>
       </c>
-      <c r="B107" s="178"/>
+      <c r="B107" s="175"/>
       <c r="C107" s="35" t="s">
         <v>251</v>
       </c>
@@ -19011,7 +19011,7 @@
       <c r="A108" s="37">
         <v>72</v>
       </c>
-      <c r="B108" s="178"/>
+      <c r="B108" s="175"/>
       <c r="C108" s="35" t="s">
         <v>252</v>
       </c>
@@ -19030,7 +19030,7 @@
       <c r="A109" s="37">
         <v>73</v>
       </c>
-      <c r="B109" s="178"/>
+      <c r="B109" s="175"/>
       <c r="C109" s="35" t="s">
         <v>253</v>
       </c>
@@ -19049,7 +19049,7 @@
       <c r="A110" s="37">
         <v>74</v>
       </c>
-      <c r="B110" s="178"/>
+      <c r="B110" s="175"/>
       <c r="C110" s="35" t="s">
         <v>254</v>
       </c>
@@ -19068,7 +19068,7 @@
       <c r="A111" s="37">
         <v>75</v>
       </c>
-      <c r="B111" s="178"/>
+      <c r="B111" s="175"/>
       <c r="C111" s="35" t="s">
         <v>255</v>
       </c>
@@ -19087,7 +19087,7 @@
       <c r="A112" s="37">
         <v>76</v>
       </c>
-      <c r="B112" s="178"/>
+      <c r="B112" s="175"/>
       <c r="C112" s="35" t="s">
         <v>256</v>
       </c>
@@ -19180,12 +19180,12 @@
       <c r="H116" s="12"/>
     </row>
     <row r="117" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A117" s="182" t="s">
+      <c r="A117" s="176" t="s">
         <v>262</v>
       </c>
-      <c r="B117" s="182"/>
-      <c r="C117" s="182"/>
-      <c r="D117" s="182"/>
+      <c r="B117" s="176"/>
+      <c r="C117" s="176"/>
+      <c r="D117" s="176"/>
       <c r="E117" s="77"/>
       <c r="F117" s="77"/>
       <c r="G117" s="67"/>
@@ -19195,7 +19195,7 @@
       <c r="A118" s="37">
         <v>80</v>
       </c>
-      <c r="B118" s="183" t="s">
+      <c r="B118" s="177" t="s">
         <v>204</v>
       </c>
       <c r="C118" s="36" t="s">
@@ -19218,7 +19218,7 @@
       <c r="A119" s="37">
         <v>81</v>
       </c>
-      <c r="B119" s="184"/>
+      <c r="B119" s="178"/>
       <c r="C119" s="36" t="s">
         <v>34</v>
       </c>
@@ -19239,7 +19239,7 @@
       <c r="A120" s="37">
         <v>82</v>
       </c>
-      <c r="B120" s="184"/>
+      <c r="B120" s="178"/>
       <c r="C120" s="36" t="s">
         <v>325</v>
       </c>
@@ -19257,10 +19257,10 @@
       <c r="H120" s="12"/>
     </row>
     <row r="121" spans="1:8" ht="33" x14ac:dyDescent="0.35">
-      <c r="A121" s="175">
+      <c r="A121" s="180">
         <v>83</v>
       </c>
-      <c r="B121" s="184"/>
+      <c r="B121" s="178"/>
       <c r="C121" s="35" t="s">
         <v>408</v>
       </c>
@@ -19276,8 +19276,8 @@
       <c r="H121" s="12"/>
     </row>
     <row r="122" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A122" s="176"/>
-      <c r="B122" s="184"/>
+      <c r="A122" s="181"/>
+      <c r="B122" s="178"/>
       <c r="C122" s="35" t="s">
         <v>409</v>
       </c>
@@ -19293,8 +19293,8 @@
       <c r="H122" s="12"/>
     </row>
     <row r="123" spans="1:8" ht="33" x14ac:dyDescent="0.35">
-      <c r="A123" s="177"/>
-      <c r="B123" s="184"/>
+      <c r="A123" s="182"/>
+      <c r="B123" s="178"/>
       <c r="C123" s="35" t="s">
         <v>410</v>
       </c>
@@ -19313,7 +19313,7 @@
       <c r="A124" s="37">
         <v>84</v>
       </c>
-      <c r="B124" s="184"/>
+      <c r="B124" s="178"/>
       <c r="C124" s="36" t="s">
         <v>411</v>
       </c>
@@ -19334,7 +19334,7 @@
       <c r="A125" s="37">
         <v>85</v>
       </c>
-      <c r="B125" s="184"/>
+      <c r="B125" s="178"/>
       <c r="C125" s="36" t="s">
         <v>138</v>
       </c>
@@ -19355,7 +19355,7 @@
       <c r="A126" s="37">
         <v>86</v>
       </c>
-      <c r="B126" s="185"/>
+      <c r="B126" s="179"/>
       <c r="C126" s="36" t="s">
         <v>139</v>
       </c>
@@ -20278,12 +20278,12 @@
       <c r="H169" s="12"/>
     </row>
     <row r="170" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A170" s="182" t="s">
+      <c r="A170" s="176" t="s">
         <v>206</v>
       </c>
-      <c r="B170" s="182"/>
-      <c r="C170" s="182"/>
-      <c r="D170" s="182"/>
+      <c r="B170" s="176"/>
+      <c r="C170" s="176"/>
+      <c r="D170" s="176"/>
       <c r="E170" s="77"/>
       <c r="F170" s="77"/>
       <c r="G170" s="67"/>
@@ -20424,7 +20424,7 @@
         <f t="shared" si="4"/>
         <v>67000</v>
       </c>
-      <c r="G177" s="180" t="s">
+      <c r="G177" s="184" t="s">
         <v>384</v>
       </c>
     </row>
@@ -20446,15 +20446,15 @@
         <f t="shared" si="4"/>
         <v>82000</v>
       </c>
-      <c r="G178" s="181"/>
+      <c r="G178" s="185"/>
     </row>
     <row r="179" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A179" s="182" t="s">
+      <c r="A179" s="176" t="s">
         <v>168</v>
       </c>
-      <c r="B179" s="182"/>
-      <c r="C179" s="182"/>
-      <c r="D179" s="182"/>
+      <c r="B179" s="176"/>
+      <c r="C179" s="176"/>
+      <c r="D179" s="176"/>
       <c r="E179" s="77"/>
       <c r="F179" s="77"/>
       <c r="G179" s="67"/>
@@ -20633,12 +20633,12 @@
       <c r="H187" s="12"/>
     </row>
     <row r="188" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A188" s="182" t="s">
+      <c r="A188" s="176" t="s">
         <v>263</v>
       </c>
-      <c r="B188" s="182"/>
-      <c r="C188" s="182"/>
-      <c r="D188" s="182"/>
+      <c r="B188" s="176"/>
+      <c r="C188" s="176"/>
+      <c r="D188" s="176"/>
       <c r="E188" s="77"/>
       <c r="F188" s="77"/>
       <c r="G188" s="67"/>
@@ -20666,12 +20666,12 @@
       <c r="H189" s="12"/>
     </row>
     <row r="190" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A190" s="182" t="s">
+      <c r="A190" s="176" t="s">
         <v>233</v>
       </c>
-      <c r="B190" s="182"/>
-      <c r="C190" s="182"/>
-      <c r="D190" s="182"/>
+      <c r="B190" s="176"/>
+      <c r="C190" s="176"/>
+      <c r="D190" s="176"/>
       <c r="E190" s="77"/>
       <c r="F190" s="77"/>
       <c r="G190" s="67"/>
@@ -21248,12 +21248,12 @@
       <c r="G221" s="94"/>
     </row>
     <row r="222" spans="1:8" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A222" s="179" t="s">
+      <c r="A222" s="183" t="s">
         <v>27</v>
       </c>
-      <c r="B222" s="179"/>
-      <c r="C222" s="179"/>
-      <c r="D222" s="179"/>
+      <c r="B222" s="183"/>
+      <c r="C222" s="183"/>
+      <c r="D222" s="183"/>
       <c r="E222" s="26"/>
       <c r="F222" s="26"/>
       <c r="G222" s="95"/>
@@ -21381,6 +21381,60 @@
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="B223:G223"/>
+    <mergeCell ref="B224:G224"/>
+    <mergeCell ref="B225:G225"/>
+    <mergeCell ref="B226:G226"/>
+    <mergeCell ref="B227:G227"/>
+    <mergeCell ref="A222:D222"/>
+    <mergeCell ref="G177:G178"/>
+    <mergeCell ref="A179:D179"/>
+    <mergeCell ref="G180:G182"/>
+    <mergeCell ref="A188:D188"/>
+    <mergeCell ref="A190:D190"/>
+    <mergeCell ref="A201:D201"/>
+    <mergeCell ref="A207:D207"/>
+    <mergeCell ref="A211:D211"/>
+    <mergeCell ref="E212:E215"/>
+    <mergeCell ref="F212:F215"/>
+    <mergeCell ref="A216:D216"/>
+    <mergeCell ref="A176:D176"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B100:B113"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="B118:B126"/>
+    <mergeCell ref="A121:A123"/>
+    <mergeCell ref="B127:B132"/>
+    <mergeCell ref="B133:B139"/>
+    <mergeCell ref="B140:B169"/>
+    <mergeCell ref="A170:D170"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="B60:B72"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="B81:B88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="G73:G75"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="G40:G44"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="G46:G48"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="D1:G5"/>
     <mergeCell ref="A7:G7"/>
@@ -21397,60 +21451,6 @@
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="G24:G25"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="G40:G44"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="G46:G48"/>
-    <mergeCell ref="G73:G75"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="B60:B72"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="B81:B88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A176:D176"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="B100:B113"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="B118:B126"/>
-    <mergeCell ref="A121:A123"/>
-    <mergeCell ref="B127:B132"/>
-    <mergeCell ref="B133:B139"/>
-    <mergeCell ref="B140:B169"/>
-    <mergeCell ref="A170:D170"/>
-    <mergeCell ref="B174:B175"/>
-    <mergeCell ref="A222:D222"/>
-    <mergeCell ref="G177:G178"/>
-    <mergeCell ref="A179:D179"/>
-    <mergeCell ref="G180:G182"/>
-    <mergeCell ref="A188:D188"/>
-    <mergeCell ref="A190:D190"/>
-    <mergeCell ref="A201:D201"/>
-    <mergeCell ref="A207:D207"/>
-    <mergeCell ref="A211:D211"/>
-    <mergeCell ref="E212:E215"/>
-    <mergeCell ref="F212:F215"/>
-    <mergeCell ref="A216:D216"/>
-    <mergeCell ref="B223:G223"/>
-    <mergeCell ref="B224:G224"/>
-    <mergeCell ref="B225:G225"/>
-    <mergeCell ref="B226:G226"/>
-    <mergeCell ref="B227:G227"/>
   </mergeCells>
   <pageMargins left="0.35433070866141736" right="0.15748031496062992" top="0.23622047244094491" bottom="0.19685039370078741" header="0.15748031496062992" footer="0.15748031496062992"/>
   <pageSetup paperSize="9" scale="53" orientation="portrait" r:id="rId1"/>
@@ -21475,8 +21475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C4EFAC-5358-4031-B8BC-663929F6ADDF}">
   <dimension ref="A1:K233"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A161" zoomScale="60" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F172" sqref="F172"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A100" zoomScale="60" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F119" sqref="F119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -22974,7 +22974,7 @@
       <c r="A92" s="37">
         <v>57</v>
       </c>
-      <c r="B92" s="178"/>
+      <c r="B92" s="175"/>
       <c r="C92" s="35" t="s">
         <v>389</v>
       </c>
@@ -23123,7 +23123,7 @@
       <c r="A101" s="37">
         <v>65</v>
       </c>
-      <c r="B101" s="178"/>
+      <c r="B101" s="175"/>
       <c r="C101" s="35" t="s">
         <v>245</v>
       </c>
@@ -23138,7 +23138,7 @@
       <c r="A102" s="37">
         <v>66</v>
       </c>
-      <c r="B102" s="178"/>
+      <c r="B102" s="175"/>
       <c r="C102" s="35" t="s">
         <v>246</v>
       </c>
@@ -23153,7 +23153,7 @@
       <c r="A103" s="37">
         <v>67</v>
       </c>
-      <c r="B103" s="178"/>
+      <c r="B103" s="175"/>
       <c r="C103" s="35" t="s">
         <v>247</v>
       </c>
@@ -23168,7 +23168,7 @@
       <c r="A104" s="37">
         <v>68</v>
       </c>
-      <c r="B104" s="178"/>
+      <c r="B104" s="175"/>
       <c r="C104" s="35" t="s">
         <v>248</v>
       </c>
@@ -23183,7 +23183,7 @@
       <c r="A105" s="37">
         <v>69</v>
       </c>
-      <c r="B105" s="178"/>
+      <c r="B105" s="175"/>
       <c r="C105" s="35" t="s">
         <v>249</v>
       </c>
@@ -23198,7 +23198,7 @@
       <c r="A106" s="37">
         <v>70</v>
       </c>
-      <c r="B106" s="178"/>
+      <c r="B106" s="175"/>
       <c r="C106" s="35" t="s">
         <v>250</v>
       </c>
@@ -23213,7 +23213,7 @@
       <c r="A107" s="37">
         <v>71</v>
       </c>
-      <c r="B107" s="178"/>
+      <c r="B107" s="175"/>
       <c r="C107" s="35" t="s">
         <v>251</v>
       </c>
@@ -23228,7 +23228,7 @@
       <c r="A108" s="37">
         <v>72</v>
       </c>
-      <c r="B108" s="178"/>
+      <c r="B108" s="175"/>
       <c r="C108" s="35" t="s">
         <v>252</v>
       </c>
@@ -23243,7 +23243,7 @@
       <c r="A109" s="37">
         <v>73</v>
       </c>
-      <c r="B109" s="178"/>
+      <c r="B109" s="175"/>
       <c r="C109" s="35" t="s">
         <v>253</v>
       </c>
@@ -23258,7 +23258,7 @@
       <c r="A110" s="37">
         <v>74</v>
       </c>
-      <c r="B110" s="178"/>
+      <c r="B110" s="175"/>
       <c r="C110" s="35" t="s">
         <v>254</v>
       </c>
@@ -23273,7 +23273,7 @@
       <c r="A111" s="37">
         <v>75</v>
       </c>
-      <c r="B111" s="178"/>
+      <c r="B111" s="175"/>
       <c r="C111" s="35" t="s">
         <v>255</v>
       </c>
@@ -23288,7 +23288,7 @@
       <c r="A112" s="37">
         <v>76</v>
       </c>
-      <c r="B112" s="178"/>
+      <c r="B112" s="175"/>
       <c r="C112" s="35" t="s">
         <v>256</v>
       </c>
@@ -23364,12 +23364,12 @@
       <c r="G116" s="12"/>
     </row>
     <row r="117" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A117" s="182" t="s">
+      <c r="A117" s="176" t="s">
         <v>262</v>
       </c>
-      <c r="B117" s="182"/>
-      <c r="C117" s="182"/>
-      <c r="D117" s="182"/>
+      <c r="B117" s="176"/>
+      <c r="C117" s="176"/>
+      <c r="D117" s="176"/>
       <c r="E117" s="77"/>
       <c r="F117" s="67"/>
       <c r="G117" s="12"/>
@@ -23378,7 +23378,7 @@
       <c r="A118" s="37">
         <v>80</v>
       </c>
-      <c r="B118" s="183" t="s">
+      <c r="B118" s="177" t="s">
         <v>204</v>
       </c>
       <c r="C118" s="36" t="s">
@@ -23388,7 +23388,7 @@
         <v>11</v>
       </c>
       <c r="E118" s="106">
-        <v>155000</v>
+        <v>160000</v>
       </c>
       <c r="F118" s="40"/>
       <c r="G118" s="12"/>
@@ -23397,7 +23397,7 @@
       <c r="A119" s="37">
         <v>81</v>
       </c>
-      <c r="B119" s="184"/>
+      <c r="B119" s="178"/>
       <c r="C119" s="36" t="s">
         <v>34</v>
       </c>
@@ -23405,7 +23405,7 @@
         <v>35</v>
       </c>
       <c r="E119" s="106">
-        <v>155000</v>
+        <v>160000</v>
       </c>
       <c r="F119" s="40"/>
       <c r="G119" s="12"/>
@@ -23414,7 +23414,7 @@
       <c r="A120" s="37">
         <v>82</v>
       </c>
-      <c r="B120" s="184"/>
+      <c r="B120" s="178"/>
       <c r="C120" s="36" t="s">
         <v>325</v>
       </c>
@@ -23422,16 +23422,16 @@
         <v>329</v>
       </c>
       <c r="E120" s="106">
-        <v>155000</v>
+        <v>160000</v>
       </c>
       <c r="F120" s="40"/>
       <c r="G120" s="12"/>
     </row>
     <row r="121" spans="1:7" ht="33" x14ac:dyDescent="0.35">
-      <c r="A121" s="175">
+      <c r="A121" s="180">
         <v>83</v>
       </c>
-      <c r="B121" s="184"/>
+      <c r="B121" s="178"/>
       <c r="C121" s="35" t="s">
         <v>408</v>
       </c>
@@ -23443,8 +23443,8 @@
       <c r="G121" s="12"/>
     </row>
     <row r="122" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A122" s="176"/>
-      <c r="B122" s="184"/>
+      <c r="A122" s="181"/>
+      <c r="B122" s="178"/>
       <c r="C122" s="35" t="s">
         <v>409</v>
       </c>
@@ -23456,8 +23456,8 @@
       <c r="G122" s="12"/>
     </row>
     <row r="123" spans="1:7" ht="33" x14ac:dyDescent="0.35">
-      <c r="A123" s="177"/>
-      <c r="B123" s="184"/>
+      <c r="A123" s="182"/>
+      <c r="B123" s="178"/>
       <c r="C123" s="35" t="s">
         <v>410</v>
       </c>
@@ -23472,7 +23472,7 @@
       <c r="A124" s="37">
         <v>84</v>
       </c>
-      <c r="B124" s="184"/>
+      <c r="B124" s="178"/>
       <c r="C124" s="36" t="s">
         <v>411</v>
       </c>
@@ -23489,7 +23489,7 @@
       <c r="A125" s="37">
         <v>85</v>
       </c>
-      <c r="B125" s="184"/>
+      <c r="B125" s="178"/>
       <c r="C125" s="36" t="s">
         <v>138</v>
       </c>
@@ -23506,7 +23506,7 @@
       <c r="A126" s="37">
         <v>86</v>
       </c>
-      <c r="B126" s="185"/>
+      <c r="B126" s="179"/>
       <c r="C126" s="36" t="s">
         <v>139</v>
       </c>
@@ -24253,12 +24253,12 @@
       <c r="G169" s="12"/>
     </row>
     <row r="170" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A170" s="182" t="s">
+      <c r="A170" s="176" t="s">
         <v>206</v>
       </c>
-      <c r="B170" s="182"/>
-      <c r="C170" s="182"/>
-      <c r="D170" s="182"/>
+      <c r="B170" s="176"/>
+      <c r="C170" s="176"/>
+      <c r="D170" s="176"/>
       <c r="E170" s="77"/>
       <c r="F170" s="67"/>
       <c r="G170" s="12"/>
@@ -24373,7 +24373,7 @@
       <c r="E177" s="83">
         <v>71000</v>
       </c>
-      <c r="F177" s="180" t="s">
+      <c r="F177" s="184" t="s">
         <v>384</v>
       </c>
     </row>
@@ -24391,15 +24391,15 @@
       <c r="E178" s="83">
         <v>86000</v>
       </c>
-      <c r="F178" s="181"/>
+      <c r="F178" s="185"/>
     </row>
     <row r="179" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A179" s="182" t="s">
+      <c r="A179" s="176" t="s">
         <v>168</v>
       </c>
-      <c r="B179" s="182"/>
-      <c r="C179" s="182"/>
-      <c r="D179" s="182"/>
+      <c r="B179" s="176"/>
+      <c r="C179" s="176"/>
+      <c r="D179" s="176"/>
       <c r="E179" s="77"/>
       <c r="F179" s="67"/>
       <c r="G179" s="12"/>
@@ -24545,12 +24545,12 @@
       <c r="G187" s="12"/>
     </row>
     <row r="188" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A188" s="182" t="s">
+      <c r="A188" s="176" t="s">
         <v>263</v>
       </c>
-      <c r="B188" s="182"/>
-      <c r="C188" s="182"/>
-      <c r="D188" s="182"/>
+      <c r="B188" s="176"/>
+      <c r="C188" s="176"/>
+      <c r="D188" s="176"/>
       <c r="E188" s="77"/>
       <c r="F188" s="67"/>
       <c r="G188" s="12"/>
@@ -24573,12 +24573,12 @@
       <c r="G189" s="12"/>
     </row>
     <row r="190" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A190" s="182" t="s">
+      <c r="A190" s="176" t="s">
         <v>233</v>
       </c>
-      <c r="B190" s="182"/>
-      <c r="C190" s="182"/>
-      <c r="D190" s="182"/>
+      <c r="B190" s="176"/>
+      <c r="C190" s="176"/>
+      <c r="D190" s="176"/>
       <c r="E190" s="77"/>
       <c r="F190" s="67"/>
       <c r="G190" s="12"/>
@@ -25054,12 +25054,12 @@
       <c r="F221" s="94"/>
     </row>
     <row r="222" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A222" s="179" t="s">
+      <c r="A222" s="183" t="s">
         <v>27</v>
       </c>
-      <c r="B222" s="179"/>
-      <c r="C222" s="179"/>
-      <c r="D222" s="179"/>
+      <c r="B222" s="183"/>
+      <c r="C222" s="183"/>
+      <c r="D222" s="183"/>
       <c r="E222" s="26"/>
       <c r="F222" s="95"/>
     </row>
@@ -25175,6 +25175,59 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="B223:F223"/>
+    <mergeCell ref="B224:F224"/>
+    <mergeCell ref="B225:F225"/>
+    <mergeCell ref="B226:F226"/>
+    <mergeCell ref="B227:F227"/>
+    <mergeCell ref="A222:D222"/>
+    <mergeCell ref="F177:F178"/>
+    <mergeCell ref="A179:D179"/>
+    <mergeCell ref="F180:F182"/>
+    <mergeCell ref="A188:D188"/>
+    <mergeCell ref="A190:D190"/>
+    <mergeCell ref="A201:D201"/>
+    <mergeCell ref="A207:D207"/>
+    <mergeCell ref="A211:D211"/>
+    <mergeCell ref="E212:E215"/>
+    <mergeCell ref="A216:D216"/>
+    <mergeCell ref="A176:D176"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B100:B113"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="B118:B126"/>
+    <mergeCell ref="A121:A123"/>
+    <mergeCell ref="B127:B132"/>
+    <mergeCell ref="B133:B139"/>
+    <mergeCell ref="B140:B169"/>
+    <mergeCell ref="A170:D170"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="B60:B72"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="B81:B88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="F73:F75"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="F40:F44"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="F46:F48"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="D1:F5"/>
     <mergeCell ref="A7:F7"/>
@@ -25189,59 +25242,6 @@
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="F24:F25"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="F40:F44"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="F73:F75"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="B60:B72"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="B81:B88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A176:D176"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="B100:B113"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="B118:B126"/>
-    <mergeCell ref="A121:A123"/>
-    <mergeCell ref="B127:B132"/>
-    <mergeCell ref="B133:B139"/>
-    <mergeCell ref="B140:B169"/>
-    <mergeCell ref="A170:D170"/>
-    <mergeCell ref="B174:B175"/>
-    <mergeCell ref="A222:D222"/>
-    <mergeCell ref="F177:F178"/>
-    <mergeCell ref="A179:D179"/>
-    <mergeCell ref="F180:F182"/>
-    <mergeCell ref="A188:D188"/>
-    <mergeCell ref="A190:D190"/>
-    <mergeCell ref="A201:D201"/>
-    <mergeCell ref="A207:D207"/>
-    <mergeCell ref="A211:D211"/>
-    <mergeCell ref="E212:E215"/>
-    <mergeCell ref="A216:D216"/>
-    <mergeCell ref="B223:F223"/>
-    <mergeCell ref="B224:F224"/>
-    <mergeCell ref="B225:F225"/>
-    <mergeCell ref="B226:F226"/>
-    <mergeCell ref="B227:F227"/>
   </mergeCells>
   <pageMargins left="0.35433070866141736" right="0.15748031496062992" top="0.23622047244094491" bottom="0.19685039370078741" header="0.15748031496062992" footer="0.15748031496062992"/>
   <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" r:id="rId1"/>
